--- a/biology/Médecine/Dysplasie_cléidocrânienne/Dysplasie_cléidocrânienne.xlsx
+++ b/biology/Médecine/Dysplasie_cléidocrânienne/Dysplasie_cléidocrânienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysplasie_cl%C3%A9idocr%C3%A2nienne</t>
+          <t>Dysplasie_cléidocrânienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La dysplasie cléidocrânienne ou dysostose cléido-crânienne est une maladie constitutionnelle de l'os associant un retard de la fermeture des fontanelles du crâne, une aplasie des clavicules et des anomalies de la denture. Les manifestations de cette maladie sont très variables au sein d'une même famille.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dysplasie_cl%C3%A9idocr%C3%A2nienne</t>
+          <t>Dysplasie_cléidocrânienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Sources[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(en) Roberto Mendoza-Londono, Brendan Lee, Cleidocranial Dysplasia In: GeneReviews at GeneTests: Médical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. [1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(en) Roberto Mendoza-Londono, Brendan Lee, Cleidocranial Dysplasia In: GeneReviews at GeneTests: Médical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. .</t>
         </is>
       </c>
     </row>
